--- a/planning/DashboardData.xlsx
+++ b/planning/DashboardData.xlsx
@@ -749,16 +749,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="185" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -778,32 +778,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,6 +816,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -834,6 +834,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,7 +870,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,36 +884,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -907,7 +892,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,6 +942,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -960,7 +966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,25 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,13 +1008,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,7 +1086,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,79 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,15 +1147,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,6 +1199,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1238,145 +1238,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1393,13 +1393,13 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="45" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="45" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1408,10 +1408,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="48" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="48" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -4471,13 +4471,13 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.6015625" customWidth="1"/>
-    <col min="2" max="2" width="8.8125" customWidth="1"/>
+    <col min="2" max="2" width="24.03125" customWidth="1"/>
     <col min="3" max="3" width="24.6875" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="13.71875" customWidth="1"/>
